--- a/tests/data/sample_rcm_idt_v1.xlsx
+++ b/tests/data/sample_rcm_idt_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/msi/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516F397-C948-8447-ACA4-95F065B5EF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC1515-7FE1-BC4E-A3C9-6C0C8FE638F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="2580" windowWidth="22500" windowHeight="16240" activeTab="1" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="15220" yWindow="2580" windowWidth="22500" windowHeight="16240" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>idt</t>
   </si>
   <si>
-    <t>idt_target</t>
-  </si>
-  <si>
     <t>idt_method</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>end_time</t>
+  </si>
+  <si>
+    <t>idt_targ</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E566FD-7BF3-F74E-98A5-DE111CAFB7E0}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -869,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
@@ -1002,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA5EEB-3993-0F42-AC73-AA3A7F46C27C}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1195,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1262,7 +1262,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
